--- a/data/pca/factorExposure/factorExposure_2009-05-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01728919718987951</v>
+        <v>-0.01669697573339178</v>
       </c>
       <c r="C2">
-        <v>0.001855209251093148</v>
+        <v>0.001205072306978768</v>
       </c>
       <c r="D2">
-        <v>0.01000519379785716</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01004160902694915</v>
+      </c>
+      <c r="E2">
+        <v>0.002621924213433732</v>
+      </c>
+      <c r="F2">
+        <v>-0.01263287634739235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08848603238194153</v>
+        <v>-0.09119304106530338</v>
       </c>
       <c r="C4">
-        <v>0.02025123007451405</v>
+        <v>0.0155698395576822</v>
       </c>
       <c r="D4">
-        <v>0.0792556017381946</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08288689256910435</v>
+      </c>
+      <c r="E4">
+        <v>0.02714311611641378</v>
+      </c>
+      <c r="F4">
+        <v>0.03339346311445587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>7.322339694627094e-06</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-5.21461062078909e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.000235278003717663</v>
+      </c>
+      <c r="E5">
+        <v>0.0001318193780160502</v>
+      </c>
+      <c r="F5">
+        <v>-8.434423904543085e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1543879672603121</v>
+        <v>-0.162372280438747</v>
       </c>
       <c r="C6">
-        <v>0.0323756499465012</v>
+        <v>0.03093930652437436</v>
       </c>
       <c r="D6">
-        <v>-0.03563421604279654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02516268292143401</v>
+      </c>
+      <c r="E6">
+        <v>0.01260175973402172</v>
+      </c>
+      <c r="F6">
+        <v>0.03959892318531927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05816088452506966</v>
+        <v>-0.06097053323024079</v>
       </c>
       <c r="C7">
-        <v>0.001924804556790646</v>
+        <v>-0.001342214933053887</v>
       </c>
       <c r="D7">
-        <v>0.04751918200547913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05298470947917103</v>
+      </c>
+      <c r="E7">
+        <v>0.01404912274649945</v>
+      </c>
+      <c r="F7">
+        <v>0.04906834420220644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06053293578006216</v>
+        <v>-0.05677766182717146</v>
       </c>
       <c r="C8">
-        <v>-0.009703955822466515</v>
+        <v>-0.01165247092475084</v>
       </c>
       <c r="D8">
-        <v>0.02683587193499284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03052051476091223</v>
+      </c>
+      <c r="E8">
+        <v>0.01921764495337917</v>
+      </c>
+      <c r="F8">
+        <v>-0.02896759468556798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06867401257151685</v>
+        <v>-0.07107467350478466</v>
       </c>
       <c r="C9">
-        <v>0.01614780931936773</v>
+        <v>0.01107505703106434</v>
       </c>
       <c r="D9">
-        <v>0.08150270226517906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08613164994854339</v>
+      </c>
+      <c r="E9">
+        <v>0.02527498732199022</v>
+      </c>
+      <c r="F9">
+        <v>0.04905861092117934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08621934532571292</v>
+        <v>-0.08724143991472665</v>
       </c>
       <c r="C10">
-        <v>0.01762531148744515</v>
+        <v>0.02247056393988122</v>
       </c>
       <c r="D10">
-        <v>-0.1666355577870571</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1593596071975879</v>
+      </c>
+      <c r="E10">
+        <v>-0.03285637998746502</v>
+      </c>
+      <c r="F10">
+        <v>-0.05999433174176162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08961524779662074</v>
+        <v>-0.08638147332765732</v>
       </c>
       <c r="C11">
-        <v>0.01765127323834177</v>
+        <v>0.01225121854460164</v>
       </c>
       <c r="D11">
-        <v>0.1124184831858196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1185352119573873</v>
+      </c>
+      <c r="E11">
+        <v>0.05239366370657602</v>
+      </c>
+      <c r="F11">
+        <v>0.02593971334150103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09704715920280696</v>
+        <v>-0.09099200372671164</v>
       </c>
       <c r="C12">
-        <v>0.01644144289449028</v>
+        <v>0.01017776256571796</v>
       </c>
       <c r="D12">
-        <v>0.1187196348912447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.133762919435511</v>
+      </c>
+      <c r="E12">
+        <v>0.05294607675439079</v>
+      </c>
+      <c r="F12">
+        <v>0.03199260185416785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04471436175325363</v>
+        <v>-0.04401048816337631</v>
       </c>
       <c r="C13">
-        <v>0.007004546511192242</v>
+        <v>0.003271518112361464</v>
       </c>
       <c r="D13">
-        <v>0.04626719892391949</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05404815272542595</v>
+      </c>
+      <c r="E13">
+        <v>0.0008858309377232629</v>
+      </c>
+      <c r="F13">
+        <v>0.004580933106459446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01990271996680775</v>
+        <v>-0.02351755679326927</v>
       </c>
       <c r="C14">
-        <v>0.01531719591957248</v>
+        <v>0.01412785095234959</v>
       </c>
       <c r="D14">
-        <v>0.03214035203068053</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03311602044201865</v>
+      </c>
+      <c r="E14">
+        <v>0.02219151990291582</v>
+      </c>
+      <c r="F14">
+        <v>0.01205813043107626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03434341488349645</v>
+        <v>-0.0344154194400078</v>
       </c>
       <c r="C15">
-        <v>0.007929354349283243</v>
+        <v>0.006099612596553936</v>
       </c>
       <c r="D15">
-        <v>0.04612122677724481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0464919162863896</v>
+      </c>
+      <c r="E15">
+        <v>0.008728770998359454</v>
+      </c>
+      <c r="F15">
+        <v>0.0300776431162032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07342422150195219</v>
+        <v>-0.07111282711242466</v>
       </c>
       <c r="C16">
-        <v>0.007577359023212352</v>
+        <v>0.001963743986947655</v>
       </c>
       <c r="D16">
-        <v>0.1158241870639918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1295610495768472</v>
+      </c>
+      <c r="E16">
+        <v>0.06472052542019706</v>
+      </c>
+      <c r="F16">
+        <v>0.02939275642661523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001368061015243807</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0004591601564635157</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002276918957870214</v>
+      </c>
+      <c r="E17">
+        <v>0.001612327420410407</v>
+      </c>
+      <c r="F17">
+        <v>-0.002306976520250028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.0256948119342974</v>
+        <v>-0.04363138320977668</v>
       </c>
       <c r="C18">
-        <v>-0.001444328461672239</v>
+        <v>-0.001335443113226142</v>
       </c>
       <c r="D18">
-        <v>0.02246267425733151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01698083093747114</v>
+      </c>
+      <c r="E18">
+        <v>-0.003216916723381275</v>
+      </c>
+      <c r="F18">
+        <v>-0.008946925158753673</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06416112763657369</v>
+        <v>-0.06280923999100863</v>
       </c>
       <c r="C20">
-        <v>0.00606859629695276</v>
+        <v>0.00210776992904002</v>
       </c>
       <c r="D20">
-        <v>0.07266116714762266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07864213340398757</v>
+      </c>
+      <c r="E20">
+        <v>0.06284335819121321</v>
+      </c>
+      <c r="F20">
+        <v>0.03139687956040944</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04137838552195063</v>
+        <v>-0.04300068276343793</v>
       </c>
       <c r="C21">
-        <v>0.01034177454041872</v>
+        <v>0.007567543029176901</v>
       </c>
       <c r="D21">
-        <v>0.03519715890093773</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03654484407536505</v>
+      </c>
+      <c r="E21">
+        <v>0.003890159503580757</v>
+      </c>
+      <c r="F21">
+        <v>-0.0238746535737707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03971725852140724</v>
+        <v>-0.04173189441765386</v>
       </c>
       <c r="C22">
-        <v>0.001185655928309314</v>
+        <v>0.0008608534437997132</v>
       </c>
       <c r="D22">
-        <v>0.0007505905980598463</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006680015820931372</v>
+      </c>
+      <c r="E22">
+        <v>0.03568302750970156</v>
+      </c>
+      <c r="F22">
+        <v>-0.05158265489977064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03967168216139211</v>
+        <v>-0.04170073545423204</v>
       </c>
       <c r="C23">
-        <v>0.001171297810861653</v>
+        <v>0.0008489588899762378</v>
       </c>
       <c r="D23">
-        <v>0.0007788203391943301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006694064751376464</v>
+      </c>
+      <c r="E23">
+        <v>0.03571259167736157</v>
+      </c>
+      <c r="F23">
+        <v>-0.05163737533865463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08038446843568986</v>
+        <v>-0.07677944845395868</v>
       </c>
       <c r="C24">
-        <v>0.008210053050540546</v>
+        <v>0.002725259692053913</v>
       </c>
       <c r="D24">
-        <v>0.1167027852329173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1223650514982898</v>
+      </c>
+      <c r="E24">
+        <v>0.05162541393852568</v>
+      </c>
+      <c r="F24">
+        <v>0.03210265843405431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0857352107361906</v>
+        <v>-0.08217777285047863</v>
       </c>
       <c r="C25">
-        <v>0.01070689908648964</v>
+        <v>0.005746548587741686</v>
       </c>
       <c r="D25">
-        <v>0.1045482781396556</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1107570591022457</v>
+      </c>
+      <c r="E25">
+        <v>0.03504904186739891</v>
+      </c>
+      <c r="F25">
+        <v>0.02843053436909964</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05784015751803104</v>
+        <v>-0.06109191682907623</v>
       </c>
       <c r="C26">
-        <v>0.01861282941885474</v>
+        <v>0.01530071498383091</v>
       </c>
       <c r="D26">
-        <v>0.03666186590467088</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04635621067260782</v>
+      </c>
+      <c r="E26">
+        <v>0.03451285367512502</v>
+      </c>
+      <c r="F26">
+        <v>-0.006393291367024732</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1364253365925314</v>
+        <v>-0.1453798198036569</v>
       </c>
       <c r="C28">
-        <v>0.01791274127831263</v>
+        <v>0.02540447830510955</v>
       </c>
       <c r="D28">
-        <v>-0.2619486123639151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2574122784647212</v>
+      </c>
+      <c r="E28">
+        <v>-0.0674735010047105</v>
+      </c>
+      <c r="F28">
+        <v>0.003942499891335293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02589355822957804</v>
+        <v>-0.02853924199555893</v>
       </c>
       <c r="C29">
-        <v>0.009943359944456521</v>
+        <v>0.009218005800015323</v>
       </c>
       <c r="D29">
-        <v>0.03022605594155998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03050747986634752</v>
+      </c>
+      <c r="E29">
+        <v>0.01842460020605733</v>
+      </c>
+      <c r="F29">
+        <v>-0.01351904108139631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05768260983766953</v>
+        <v>-0.05524737465621275</v>
       </c>
       <c r="C30">
-        <v>0.00787730776927793</v>
+        <v>0.002991913209998596</v>
       </c>
       <c r="D30">
-        <v>0.07847971698177442</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08695706161787313</v>
+      </c>
+      <c r="E30">
+        <v>0.01413096656260508</v>
+      </c>
+      <c r="F30">
+        <v>0.08170818329341246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05035737276254496</v>
+        <v>-0.05103208041906095</v>
       </c>
       <c r="C31">
-        <v>0.01788167498771824</v>
+        <v>0.01649426570906747</v>
       </c>
       <c r="D31">
-        <v>0.02240226332958859</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02505101682514584</v>
+      </c>
+      <c r="E31">
+        <v>0.02999712067194264</v>
+      </c>
+      <c r="F31">
+        <v>-0.001134654920938048</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04674334671698036</v>
+        <v>-0.05107185565556688</v>
       </c>
       <c r="C32">
-        <v>0.002432283701362782</v>
+        <v>-0.001086527961705984</v>
       </c>
       <c r="D32">
-        <v>0.02863507391300574</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0332724490914155</v>
+      </c>
+      <c r="E32">
+        <v>0.0351342092564686</v>
+      </c>
+      <c r="F32">
+        <v>0.003091280805481242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09014692282819634</v>
+        <v>-0.0900213633740387</v>
       </c>
       <c r="C33">
-        <v>0.01433461956399165</v>
+        <v>0.008357698903583772</v>
       </c>
       <c r="D33">
-        <v>0.09148364545784514</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1047462301622067</v>
+      </c>
+      <c r="E33">
+        <v>0.04965823854543577</v>
+      </c>
+      <c r="F33">
+        <v>0.0444146718070999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06865028192484991</v>
+        <v>-0.06670145564490124</v>
       </c>
       <c r="C34">
-        <v>0.01608382757956597</v>
+        <v>0.01117653206980096</v>
       </c>
       <c r="D34">
-        <v>0.09864122758809245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1108879370736404</v>
+      </c>
+      <c r="E34">
+        <v>0.03968546706610045</v>
+      </c>
+      <c r="F34">
+        <v>0.03671725594452157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02621470001203275</v>
+        <v>-0.02783553577539299</v>
       </c>
       <c r="C35">
-        <v>0.004424862310507512</v>
+        <v>0.003896047603547341</v>
       </c>
       <c r="D35">
-        <v>0.008411117564865518</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01162242912164724</v>
+      </c>
+      <c r="E35">
+        <v>0.01616096666091215</v>
+      </c>
+      <c r="F35">
+        <v>4.771833283329682e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02452004745179401</v>
+        <v>-0.02864261391197887</v>
       </c>
       <c r="C36">
-        <v>0.008848015135586073</v>
+        <v>0.007379823454638518</v>
       </c>
       <c r="D36">
-        <v>0.03745403852180632</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03998382367411518</v>
+      </c>
+      <c r="E36">
+        <v>0.02000691728744711</v>
+      </c>
+      <c r="F36">
+        <v>0.01571151725703215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.002390481372554077</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007503733549801952</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003160342887781158</v>
+      </c>
+      <c r="E37">
+        <v>0.0008182051071644838</v>
+      </c>
+      <c r="F37">
+        <v>-0.001249595501512715</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1091957241868166</v>
+        <v>-0.0984016075530974</v>
       </c>
       <c r="C39">
-        <v>0.02357815240315237</v>
+        <v>0.01693834809028355</v>
       </c>
       <c r="D39">
-        <v>0.150247026974568</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1526062514137984</v>
+      </c>
+      <c r="E39">
+        <v>0.0633895351686269</v>
+      </c>
+      <c r="F39">
+        <v>0.02331803219329312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03898944837168742</v>
+        <v>-0.04451935467404308</v>
       </c>
       <c r="C40">
-        <v>0.01006020324133147</v>
+        <v>0.008652683274878125</v>
       </c>
       <c r="D40">
-        <v>0.02400880544316021</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03255013277243608</v>
+      </c>
+      <c r="E40">
+        <v>0.004041449640149374</v>
+      </c>
+      <c r="F40">
+        <v>-0.01685103766277021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02518255141244813</v>
+        <v>-0.02742944715793066</v>
       </c>
       <c r="C41">
-        <v>0.0078684157453671</v>
+        <v>0.007096914831757916</v>
       </c>
       <c r="D41">
-        <v>0.007736734709826554</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.009887251148266154</v>
+      </c>
+      <c r="E41">
+        <v>0.01362320096438755</v>
+      </c>
+      <c r="F41">
+        <v>-0.007231709342206813</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04125155900026067</v>
+        <v>-0.03977410399758114</v>
       </c>
       <c r="C43">
-        <v>0.00852299407133808</v>
+        <v>0.007891031128635833</v>
       </c>
       <c r="D43">
-        <v>0.01822174755006507</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02008874418043948</v>
+      </c>
+      <c r="E43">
+        <v>0.02797201759102243</v>
+      </c>
+      <c r="F43">
+        <v>-0.01610716008467675</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06350121986972117</v>
+        <v>-0.07419471304168902</v>
       </c>
       <c r="C44">
-        <v>0.02341748758672417</v>
+        <v>0.01929957997025015</v>
       </c>
       <c r="D44">
-        <v>0.09272298992607671</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09226392084841019</v>
+      </c>
+      <c r="E44">
+        <v>0.05839924506416486</v>
+      </c>
+      <c r="F44">
+        <v>0.1715337927194698</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02061651150771573</v>
+        <v>-0.02370676273709066</v>
       </c>
       <c r="C46">
-        <v>0.004509460160449654</v>
+        <v>0.003409725314811579</v>
       </c>
       <c r="D46">
-        <v>0.00895905902082204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01270340989822547</v>
+      </c>
+      <c r="E46">
+        <v>0.03024675418997278</v>
+      </c>
+      <c r="F46">
+        <v>-0.005594299372640757</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05391296804505812</v>
+        <v>-0.05326733382068686</v>
       </c>
       <c r="C47">
-        <v>0.00623567078704699</v>
+        <v>0.005064234126521612</v>
       </c>
       <c r="D47">
-        <v>0.007100673187844605</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01088460686693124</v>
+      </c>
+      <c r="E47">
+        <v>0.02567419178042262</v>
+      </c>
+      <c r="F47">
+        <v>-0.03127476172310238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04847397508649459</v>
+        <v>-0.05164365581469901</v>
       </c>
       <c r="C48">
-        <v>0.005698942835262272</v>
+        <v>0.002945327715722331</v>
       </c>
       <c r="D48">
-        <v>0.04841836800545053</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05114095621682211</v>
+      </c>
+      <c r="E48">
+        <v>-0.002329185660920627</v>
+      </c>
+      <c r="F48">
+        <v>0.01347265612654997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1976638671317633</v>
+        <v>-0.2000099898856214</v>
       </c>
       <c r="C49">
-        <v>0.02508597322988755</v>
+        <v>0.02271023927056201</v>
       </c>
       <c r="D49">
-        <v>-0.01196957740337495</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.0053639264575716</v>
+      </c>
+      <c r="E49">
+        <v>0.02795728134304793</v>
+      </c>
+      <c r="F49">
+        <v>0.05074343557455036</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04917368731109478</v>
+        <v>-0.05171700678459566</v>
       </c>
       <c r="C50">
-        <v>0.01373204675920103</v>
+        <v>0.01231321005285045</v>
       </c>
       <c r="D50">
-        <v>0.02234766863252405</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02502242513218753</v>
+      </c>
+      <c r="E50">
+        <v>0.03305521618238669</v>
+      </c>
+      <c r="F50">
+        <v>0.009688129734500034</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1544295201900537</v>
+        <v>-0.1472907324552935</v>
       </c>
       <c r="C52">
-        <v>0.02286957600840714</v>
+        <v>0.02035082842461733</v>
       </c>
       <c r="D52">
-        <v>0.04205026685800527</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04435367540377858</v>
+      </c>
+      <c r="E52">
+        <v>0.02122866125614707</v>
+      </c>
+      <c r="F52">
+        <v>0.04161076643169498</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1747401456417781</v>
+        <v>-0.1684972788781811</v>
       </c>
       <c r="C53">
-        <v>0.02443306452390685</v>
+        <v>0.02376526279801558</v>
       </c>
       <c r="D53">
-        <v>0.005955054706883725</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.007843505279473292</v>
+      </c>
+      <c r="E53">
+        <v>0.02751543838426511</v>
+      </c>
+      <c r="F53">
+        <v>0.07509568119038809</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01608249401992876</v>
+        <v>-0.01849657622961045</v>
       </c>
       <c r="C54">
-        <v>0.0120093054157363</v>
+        <v>0.0109592158393277</v>
       </c>
       <c r="D54">
-        <v>0.02976421399884125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02891425040161318</v>
+      </c>
+      <c r="E54">
+        <v>0.02089034069194047</v>
+      </c>
+      <c r="F54">
+        <v>-0.002931515839615466</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1182503070791177</v>
+        <v>-0.116039809713923</v>
       </c>
       <c r="C55">
-        <v>0.02103264614749111</v>
+        <v>0.02049119196944068</v>
       </c>
       <c r="D55">
-        <v>0.003407842187587294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009146032932989129</v>
+      </c>
+      <c r="E55">
+        <v>0.02569148816034043</v>
+      </c>
+      <c r="F55">
+        <v>0.04618975549002914</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1806311409824909</v>
+        <v>-0.1751902314349183</v>
       </c>
       <c r="C56">
-        <v>0.02240741340553142</v>
+        <v>0.0218812498247684</v>
       </c>
       <c r="D56">
-        <v>-0.007211761201157565</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001432706196029417</v>
+      </c>
+      <c r="E56">
+        <v>0.03067265061418824</v>
+      </c>
+      <c r="F56">
+        <v>0.05506015580492649</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04485017540571062</v>
+        <v>-0.04385289004929851</v>
       </c>
       <c r="C58">
-        <v>0.004432717437899717</v>
+        <v>-0.0002867754460220717</v>
       </c>
       <c r="D58">
-        <v>0.06581223400339596</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07597184165452882</v>
+      </c>
+      <c r="E58">
+        <v>0.03582867332109748</v>
+      </c>
+      <c r="F58">
+        <v>-0.03491415418485174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1621576059073157</v>
+        <v>-0.1687091839642378</v>
       </c>
       <c r="C59">
-        <v>0.01961845641880677</v>
+        <v>0.02564312705320701</v>
       </c>
       <c r="D59">
-        <v>-0.2222647919318492</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.21671393005872</v>
+      </c>
+      <c r="E59">
+        <v>-0.05237892113748135</v>
+      </c>
+      <c r="F59">
+        <v>-0.04215446691701152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2379243333363753</v>
+        <v>-0.2297671877765622</v>
       </c>
       <c r="C60">
-        <v>0.007002320593158541</v>
+        <v>0.002929893351118255</v>
       </c>
       <c r="D60">
-        <v>0.03743738104004621</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04055360608061575</v>
+      </c>
+      <c r="E60">
+        <v>0.0001330514141498839</v>
+      </c>
+      <c r="F60">
+        <v>0.006611089166454873</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08048059953242943</v>
+        <v>-0.07433971842671391</v>
       </c>
       <c r="C61">
-        <v>0.01738007168947093</v>
+        <v>0.01167824682086854</v>
       </c>
       <c r="D61">
-        <v>0.1119486818438671</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1177305925768711</v>
+      </c>
+      <c r="E61">
+        <v>0.04227171585465388</v>
+      </c>
+      <c r="F61">
+        <v>0.01051316179646547</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.172826115187336</v>
+        <v>-0.1683722880204421</v>
       </c>
       <c r="C62">
-        <v>0.02604395077696253</v>
+        <v>0.02439054062314963</v>
       </c>
       <c r="D62">
-        <v>0.0002008498057829751</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.008216524054514705</v>
+      </c>
+      <c r="E62">
+        <v>0.03363261239979367</v>
+      </c>
+      <c r="F62">
+        <v>0.04159782397387383</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04222680157019722</v>
+        <v>-0.0462769086034712</v>
       </c>
       <c r="C63">
-        <v>0.005897049238638946</v>
+        <v>0.002731830602123346</v>
       </c>
       <c r="D63">
-        <v>0.05016819575284943</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06090622780544096</v>
+      </c>
+      <c r="E63">
+        <v>0.02637497545884522</v>
+      </c>
+      <c r="F63">
+        <v>0.001238564496884067</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1152080660052661</v>
+        <v>-0.1118780575074347</v>
       </c>
       <c r="C64">
-        <v>0.01827383406180685</v>
+        <v>0.01448303894657918</v>
       </c>
       <c r="D64">
-        <v>0.03453209691168102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04272828952725624</v>
+      </c>
+      <c r="E64">
+        <v>0.0264659556862726</v>
+      </c>
+      <c r="F64">
+        <v>0.02653962560143218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1455466632992659</v>
+        <v>-0.1528655914381117</v>
       </c>
       <c r="C65">
-        <v>0.03827289476513848</v>
+        <v>0.03759896185315426</v>
       </c>
       <c r="D65">
-        <v>-0.05713016755737675</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04510195623382487</v>
+      </c>
+      <c r="E65">
+        <v>0.006450930544347445</v>
+      </c>
+      <c r="F65">
+        <v>0.03685697227281653</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1312434934585784</v>
+        <v>-0.1176279956319884</v>
       </c>
       <c r="C66">
-        <v>0.02203612527420416</v>
+        <v>0.01504501605560269</v>
       </c>
       <c r="D66">
-        <v>0.1335223490916996</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1420790359733739</v>
+      </c>
+      <c r="E66">
+        <v>0.06652197863644803</v>
+      </c>
+      <c r="F66">
+        <v>0.02862391036553464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06385550979585536</v>
+        <v>-0.05647193735967389</v>
       </c>
       <c r="C67">
-        <v>0.007074177313753702</v>
+        <v>0.004668856738415909</v>
       </c>
       <c r="D67">
-        <v>0.05545424896503224</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0588720335981967</v>
+      </c>
+      <c r="E67">
+        <v>0.02479952119548474</v>
+      </c>
+      <c r="F67">
+        <v>-0.03303560161456595</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1106393417296944</v>
+        <v>-0.1197047922023795</v>
       </c>
       <c r="C68">
-        <v>0.0277951888471764</v>
+        <v>0.03594231845395128</v>
       </c>
       <c r="D68">
-        <v>-0.2614252242767267</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2581557752930943</v>
+      </c>
+      <c r="E68">
+        <v>-0.08809477124680387</v>
+      </c>
+      <c r="F68">
+        <v>0.0001447996236257825</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03908228669644951</v>
+        <v>-0.0385442238466424</v>
       </c>
       <c r="C69">
-        <v>0.002710649871081896</v>
+        <v>0.001705322165227775</v>
       </c>
       <c r="D69">
-        <v>0.00856412227995298</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009464044488272027</v>
+      </c>
+      <c r="E69">
+        <v>0.02832485045059049</v>
+      </c>
+      <c r="F69">
+        <v>-0.0006468262672127526</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06870569013125313</v>
+        <v>-0.06833529533155962</v>
       </c>
       <c r="C70">
-        <v>-0.023304962632201</v>
+        <v>-0.02561623951963002</v>
       </c>
       <c r="D70">
-        <v>0.02546427108723317</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02974070154465092</v>
+      </c>
+      <c r="E70">
+        <v>-0.02159949366944381</v>
+      </c>
+      <c r="F70">
+        <v>-0.1850777185924489</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.129002694386013</v>
+        <v>-0.1398299344417095</v>
       </c>
       <c r="C71">
-        <v>0.03275280749292271</v>
+        <v>0.04080586386673477</v>
       </c>
       <c r="D71">
-        <v>-0.2770491535598933</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2681439741808682</v>
+      </c>
+      <c r="E71">
+        <v>-0.09858061331336836</v>
+      </c>
+      <c r="F71">
+        <v>0.003845049339027914</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1368026456783814</v>
+        <v>-0.1438323118423465</v>
       </c>
       <c r="C72">
-        <v>0.03018704055451789</v>
+        <v>0.03030781188176184</v>
       </c>
       <c r="D72">
-        <v>0.0002821103682507283</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00254110053108755</v>
+      </c>
+      <c r="E72">
+        <v>0.03982650210077821</v>
+      </c>
+      <c r="F72">
+        <v>0.02892168008141512</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2018580708754653</v>
+        <v>-0.2034115150169933</v>
       </c>
       <c r="C73">
-        <v>0.02021099706831701</v>
+        <v>0.01596303409251365</v>
       </c>
       <c r="D73">
-        <v>0.008848905147674002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01856216987939504</v>
+      </c>
+      <c r="E73">
+        <v>0.06387399987912346</v>
+      </c>
+      <c r="F73">
+        <v>0.04574645827262175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08973996141948677</v>
+        <v>-0.09063520236974429</v>
       </c>
       <c r="C74">
-        <v>0.01526342886830081</v>
+        <v>0.0143286463370821</v>
       </c>
       <c r="D74">
-        <v>0.01271803731736554</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01669609953344564</v>
+      </c>
+      <c r="E74">
+        <v>0.04074964273746191</v>
+      </c>
+      <c r="F74">
+        <v>0.052317251792432</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.133168356303224</v>
+        <v>-0.1251062782479262</v>
       </c>
       <c r="C75">
-        <v>0.03336516197122801</v>
+        <v>0.03111792450739586</v>
       </c>
       <c r="D75">
-        <v>0.02363431049620209</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03029429763813937</v>
+      </c>
+      <c r="E75">
+        <v>0.0558647168716921</v>
+      </c>
+      <c r="F75">
+        <v>0.02217977561104133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08036788543373383</v>
+        <v>-0.09146843097672475</v>
       </c>
       <c r="C77">
-        <v>0.01510333561290368</v>
+        <v>0.009817435576732215</v>
       </c>
       <c r="D77">
-        <v>0.1135006344135612</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1172079071741872</v>
+      </c>
+      <c r="E77">
+        <v>0.0491280878689486</v>
+      </c>
+      <c r="F77">
+        <v>0.0355277503922907</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09917208869943611</v>
+        <v>-0.09974624263795952</v>
       </c>
       <c r="C78">
-        <v>0.04542616305108447</v>
+        <v>0.04127243658942898</v>
       </c>
       <c r="D78">
-        <v>0.1121696452459161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1091026533585395</v>
+      </c>
+      <c r="E78">
+        <v>0.07454834930428059</v>
+      </c>
+      <c r="F78">
+        <v>0.05482276553817319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1679212718970598</v>
+        <v>-0.1637726366721326</v>
       </c>
       <c r="C79">
-        <v>0.02893837683144778</v>
+        <v>0.02720409416771307</v>
       </c>
       <c r="D79">
-        <v>0.006924783173846225</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0143804022142334</v>
+      </c>
+      <c r="E79">
+        <v>0.0464038475962591</v>
+      </c>
+      <c r="F79">
+        <v>0.01347543745732336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08089511338498812</v>
+        <v>-0.07936881344489895</v>
       </c>
       <c r="C80">
-        <v>0.003688323724878494</v>
+        <v>0.000813501308018853</v>
       </c>
       <c r="D80">
-        <v>0.05457119818923514</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05417626790227779</v>
+      </c>
+      <c r="E80">
+        <v>0.03821920560942632</v>
+      </c>
+      <c r="F80">
+        <v>-0.02741455349197666</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1196720476043706</v>
+        <v>-0.1144406020690774</v>
       </c>
       <c r="C81">
-        <v>0.03504321543166006</v>
+        <v>0.03399317612272169</v>
       </c>
       <c r="D81">
-        <v>0.005669254694047626</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01126567141798319</v>
+      </c>
+      <c r="E81">
+        <v>0.05082056701808157</v>
+      </c>
+      <c r="F81">
+        <v>0.01828685765263771</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1655904579685932</v>
+        <v>-0.163981808104703</v>
       </c>
       <c r="C82">
-        <v>0.02905217381585022</v>
+        <v>0.0288283299546287</v>
       </c>
       <c r="D82">
-        <v>0.00652275262313238</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.005152876607968419</v>
+      </c>
+      <c r="E82">
+        <v>0.02480992519487446</v>
+      </c>
+      <c r="F82">
+        <v>0.08401727045666756</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05810359556462239</v>
+        <v>-0.0530699932816121</v>
       </c>
       <c r="C83">
-        <v>0.005467148653502589</v>
+        <v>0.003385943821681196</v>
       </c>
       <c r="D83">
-        <v>0.03590658883500794</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03837190012169733</v>
+      </c>
+      <c r="E83">
+        <v>-0.002257237026432392</v>
+      </c>
+      <c r="F83">
+        <v>-0.03577163752491178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06083552631928198</v>
+        <v>-0.05606730307314797</v>
       </c>
       <c r="C84">
-        <v>0.01425954238391837</v>
+        <v>0.01132047169391266</v>
       </c>
       <c r="D84">
-        <v>0.07536890402978562</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0769363564011582</v>
+      </c>
+      <c r="E84">
+        <v>0.01380915617118026</v>
+      </c>
+      <c r="F84">
+        <v>0.01620523987286071</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1400670014769388</v>
+        <v>-0.1350609088785577</v>
       </c>
       <c r="C85">
-        <v>0.03269417669887053</v>
+        <v>0.03165387208426385</v>
       </c>
       <c r="D85">
-        <v>0.005741123511409514</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01023905488022458</v>
+      </c>
+      <c r="E85">
+        <v>0.03559478439950485</v>
+      </c>
+      <c r="F85">
+        <v>0.04891093751729721</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09956210085584341</v>
+        <v>-0.09213260680673588</v>
       </c>
       <c r="C86">
-        <v>-0.002061271546212969</v>
+        <v>-0.005194547277612412</v>
       </c>
       <c r="D86">
-        <v>0.01812288413418599</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05196061496043874</v>
+      </c>
+      <c r="E86">
+        <v>0.2399394099826952</v>
+      </c>
+      <c r="F86">
+        <v>-0.8917959605585957</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09343888803718016</v>
+        <v>-0.09051087794716252</v>
       </c>
       <c r="C87">
-        <v>0.02892869822878376</v>
+        <v>0.02098483522740924</v>
       </c>
       <c r="D87">
-        <v>0.0708792583940166</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09003350041162446</v>
+      </c>
+      <c r="E87">
+        <v>-0.0589885572617879</v>
+      </c>
+      <c r="F87">
+        <v>0.04900840748364517</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06343962213022306</v>
+        <v>-0.0617092121137546</v>
       </c>
       <c r="C88">
-        <v>0.006625582680339445</v>
+        <v>0.003673781960587603</v>
       </c>
       <c r="D88">
-        <v>0.04957345132626033</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05008970468085924</v>
+      </c>
+      <c r="E88">
+        <v>0.02744520053321499</v>
+      </c>
+      <c r="F88">
+        <v>0.01413595455831337</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1212999054621738</v>
+        <v>-0.12983911999198</v>
       </c>
       <c r="C89">
-        <v>0.008756088514581629</v>
+        <v>0.0161424386359218</v>
       </c>
       <c r="D89">
-        <v>-0.238217847215857</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2399534145338367</v>
+      </c>
+      <c r="E89">
+        <v>-0.08985789391981533</v>
+      </c>
+      <c r="F89">
+        <v>-0.009522738547282396</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1403877153792827</v>
+        <v>-0.1547040459310323</v>
       </c>
       <c r="C90">
-        <v>0.02879535104444261</v>
+        <v>0.03751936291565065</v>
       </c>
       <c r="D90">
-        <v>-0.2634233249719792</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2658865398241512</v>
+      </c>
+      <c r="E90">
+        <v>-0.1161998607393584</v>
+      </c>
+      <c r="F90">
+        <v>-0.01059696352993413</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1237982018876826</v>
+        <v>-0.1205441355125883</v>
       </c>
       <c r="C91">
-        <v>0.02328440120564362</v>
+        <v>0.02299209214536125</v>
       </c>
       <c r="D91">
-        <v>-0.02054569092878292</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01608039823833366</v>
+      </c>
+      <c r="E91">
+        <v>0.0551946064583906</v>
+      </c>
+      <c r="F91">
+        <v>-0.001262401380634793</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1415681138593583</v>
+        <v>-0.1477558670593548</v>
       </c>
       <c r="C92">
-        <v>0.01956764754125702</v>
+        <v>0.02841781752578705</v>
       </c>
       <c r="D92">
-        <v>-0.2916391313237829</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2901498095773159</v>
+      </c>
+      <c r="E92">
+        <v>-0.1030877401949813</v>
+      </c>
+      <c r="F92">
+        <v>-0.02127404644291579</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1449115304039137</v>
+        <v>-0.1572612376953212</v>
       </c>
       <c r="C93">
-        <v>0.02520246038729756</v>
+        <v>0.03268281409233511</v>
       </c>
       <c r="D93">
-        <v>-0.2607505906062224</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2600125507964019</v>
+      </c>
+      <c r="E93">
+        <v>-0.07417036353944619</v>
+      </c>
+      <c r="F93">
+        <v>0.003770569891557928</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1320120153010781</v>
+        <v>-0.1241936534110445</v>
       </c>
       <c r="C94">
-        <v>0.02946667430216035</v>
+        <v>0.0266897768698228</v>
       </c>
       <c r="D94">
-        <v>0.03775616870851304</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04198915625504943</v>
+      </c>
+      <c r="E94">
+        <v>0.05664539916573984</v>
+      </c>
+      <c r="F94">
+        <v>0.03291147885675631</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1266134011125822</v>
+        <v>-0.1293705076366548</v>
       </c>
       <c r="C95">
-        <v>0.01188500854304278</v>
+        <v>0.006599636054076958</v>
       </c>
       <c r="D95">
-        <v>0.08976782838858735</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1005477409711437</v>
+      </c>
+      <c r="E95">
+        <v>0.06180521565492981</v>
+      </c>
+      <c r="F95">
+        <v>0.006055593865615549</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.140170400476712</v>
+        <v>-0.1304159288037754</v>
       </c>
       <c r="C96">
-        <v>-0.9844470518882089</v>
+        <v>-0.9847654978235602</v>
       </c>
       <c r="D96">
-        <v>-0.02205497383795089</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05149703908505966</v>
+      </c>
+      <c r="E96">
+        <v>0.04784403919469263</v>
+      </c>
+      <c r="F96">
+        <v>0.04333047574393523</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.187661501612666</v>
+        <v>-0.1919334921483712</v>
       </c>
       <c r="C97">
-        <v>-0.001539440995840402</v>
+        <v>-0.001956726683384001</v>
       </c>
       <c r="D97">
-        <v>-0.02870444751963743</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.03161946383859221</v>
+      </c>
+      <c r="E97">
+        <v>0.03921710875308723</v>
+      </c>
+      <c r="F97">
+        <v>-0.1158137256097174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1980956571248559</v>
+        <v>-0.2045514757696222</v>
       </c>
       <c r="C98">
-        <v>0.01468054578169523</v>
+        <v>0.01050772185020583</v>
       </c>
       <c r="D98">
-        <v>0.01219084136529829</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01438468246682737</v>
+      </c>
+      <c r="E98">
+        <v>-0.0807617115409741</v>
+      </c>
+      <c r="F98">
+        <v>-0.09621691014160216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05676653392562236</v>
+        <v>-0.05619881503842091</v>
       </c>
       <c r="C99">
-        <v>-0.0009467779967578604</v>
+        <v>-0.003088817282142324</v>
       </c>
       <c r="D99">
-        <v>0.03506682734113551</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04140386266347271</v>
+      </c>
+      <c r="E99">
+        <v>0.02683114429712711</v>
+      </c>
+      <c r="F99">
+        <v>0.002766635057070458</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1495421366813244</v>
+        <v>-0.1352920295826731</v>
       </c>
       <c r="C100">
-        <v>-0.03438261800451898</v>
+        <v>-0.04651260259931611</v>
       </c>
       <c r="D100">
-        <v>0.4047125058992965</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.365044593594567</v>
+      </c>
+      <c r="E100">
+        <v>-0.8763628680618212</v>
+      </c>
+      <c r="F100">
+        <v>-0.1664992370865545</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02589492454080085</v>
+        <v>-0.02858897406552951</v>
       </c>
       <c r="C101">
-        <v>0.009946889464750539</v>
+        <v>0.009243459779159397</v>
       </c>
       <c r="D101">
-        <v>0.02977646286513138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03007768411601297</v>
+      </c>
+      <c r="E101">
+        <v>0.01801624141083468</v>
+      </c>
+      <c r="F101">
+        <v>-0.014854171672898</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
